--- a/01_Week1/05_PackagesIntro/participant_survey.xlsx
+++ b/01_Week1/05_PackagesIntro/participant_survey.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
   <si>
     <t>Timestamp</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Which of these foods do you prefer?</t>
   </si>
   <si>
-    <t>How big Harry Potter fan are you?</t>
+    <t>How big of a Harry Potter fan are you?</t>
   </si>
   <si>
     <t>Please describe your Harry Potter fan level in one sentence.</t>
@@ -50,6 +50,189 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Mega</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>Harry Potter is a boy child and an annoying character.</t>
+  </si>
+  <si>
+    <t>Grapenut</t>
+  </si>
+  <si>
+    <t>I dressed up and went to the final book release in costume...</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>I've read all the books, but not seen all the movies.</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>They hold a lot of nostalgia value</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>I have read Harry Potter over 100 times, I love it!</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I identify as a Hufflepuff before anything else. </t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Read all the books when they came out</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>It's alright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I started reading the books at age ten and have read them three more times since. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States </t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>Harry Potter is ok.</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>I don't like Harry Potter.</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Read some books and watched some movies</t>
+  </si>
+  <si>
+    <t>maryland</t>
+  </si>
+  <si>
+    <t>I used to be really engaged with Harry Potter as a child but I no longer have the same level of engagement.</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Changed drastically since JK Rowling's TERF sentiments became clear</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>I've never watched a movie or read a book.</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Never finished reading them, and I haven't watched the movies.</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>I love the Harry Potter world but I hate JK Rowling</t>
+  </si>
+  <si>
+    <t>Read all the books, watched some movie, hardly remember details</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>You have your mother's eyes.</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>I never read the books or watched the movies</t>
+  </si>
+  <si>
+    <t>Merica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm just indifferent </t>
+  </si>
+  <si>
+    <t>I liked it before it was a social media identity and billion dollar franchise</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>not a fan</t>
+  </si>
+  <si>
+    <t>Huge fan</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>I've watched the movies, but haven't read the books.</t>
+  </si>
+  <si>
+    <t>meh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I read up to book 3 and could not get into it; a woefully inadequate series (Lord of the Rings is far superior) </t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>Nepal</t>
   </si>
 </sst>
 </file>
@@ -59,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -69,6 +252,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,15 +268,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -324,7 +514,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -344,29 +534,785 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44027.72542796296</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
         <v>5.0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>27.0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>44034.35628072917</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>44034.35629967593</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>44034.356299861116</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>44034.35652855324</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>44034.35666928241</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>44034.35676224537</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>44034.35685643519</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>44034.357077187495</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>44034.35716591435</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>44034.35721253473</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>44034.35741319445</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>44034.35742693287</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>44034.357427766205</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>44034.35804171296</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>44034.358260196765</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>44034.35839563658</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>44034.358406354164</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>44034.35859668981</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>44034.35864883102</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>44034.35900652778</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>44034.359127777774</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>44034.35995597222</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>44034.36193297454</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>44034.36193983797</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>44034.36564912037</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>44034.36575170139</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>44034.36617459491</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>44034.38087314815</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3">
+        <v>44034.39286291666</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>44034.40172298611</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
